--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.383078666666667</v>
+        <v>1.543058333333333</v>
       </c>
       <c r="N2">
-        <v>7.149236</v>
+        <v>4.629175</v>
       </c>
       <c r="O2">
-        <v>0.3945674126995297</v>
+        <v>0.3927712126299722</v>
       </c>
       <c r="P2">
-        <v>0.449391619012969</v>
+        <v>0.4267890789273644</v>
       </c>
       <c r="Q2">
-        <v>3.829759934368</v>
+        <v>2.4797934974</v>
       </c>
       <c r="R2">
-        <v>34.467839409312</v>
+        <v>22.3181414766</v>
       </c>
       <c r="S2">
-        <v>0.3945674126995297</v>
+        <v>0.3927712126299722</v>
       </c>
       <c r="T2">
-        <v>0.449391619012969</v>
+        <v>0.4267890789273644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.446170333333333</v>
+        <v>1.446170333333334</v>
       </c>
       <c r="N3">
         <v>4.338511</v>
       </c>
       <c r="O3">
-        <v>0.2394430761886233</v>
+        <v>0.3681092692495906</v>
       </c>
       <c r="P3">
-        <v>0.2727131238072956</v>
+        <v>0.399991167671613</v>
       </c>
       <c r="Q3">
-        <v>2.324088280568</v>
+        <v>2.324088280568001</v>
       </c>
       <c r="R3">
         <v>20.916794525112</v>
       </c>
       <c r="S3">
-        <v>0.2394430761886233</v>
+        <v>0.3681092692495906</v>
       </c>
       <c r="T3">
-        <v>0.2727131238072956</v>
+        <v>0.399991167671613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.210476</v>
+        <v>0.9394155</v>
       </c>
       <c r="N4">
-        <v>4.420952</v>
+        <v>1.878831</v>
       </c>
       <c r="O4">
-        <v>0.365989511111847</v>
+        <v>0.2391195181204372</v>
       </c>
       <c r="P4">
-        <v>0.2778952571797355</v>
+        <v>0.1732197534010226</v>
       </c>
       <c r="Q4">
-        <v>3.552376402464</v>
+        <v>1.509700831092</v>
       </c>
       <c r="R4">
-        <v>21.314258414784</v>
+        <v>9.058204986551999</v>
       </c>
       <c r="S4">
-        <v>0.365989511111847</v>
+        <v>0.2391195181204372</v>
       </c>
       <c r="T4">
-        <v>0.2778952571797355</v>
+        <v>0.1732197534010226</v>
       </c>
     </row>
   </sheetData>
